--- a/Spec/benchmark_results/Detalhado/Yoga.xlsx
+++ b/Spec/benchmark_results/Detalhado/Yoga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Projeto\Experimentos\Spec\Spec\benchmark_results\Detalhado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997BE70F-3040-4841-95E5-2A97D8E0C5DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C773A9-A248-447B-AEF6-E29904AE3DC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMOC" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="128" x14ac:knownFonts="1">
+  <fonts count="114" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -98,648 +98,688 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -781,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -911,23 +951,7 @@
     <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="127" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="113" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,31 +1360,31 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="127">
+      <c r="H3" s="113">
         <f t="shared" ref="H3:N3" si="0">AVERAGE(H2)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="127">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="127">
+      <c r="I3" s="113">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="113">
         <f t="shared" si="0"/>
         <v>0.33370660694288912</v>
       </c>
-      <c r="M3" s="127">
+      <c r="M3" s="113">
         <f t="shared" si="0"/>
         <v>1.1198208286674132E-3</v>
       </c>
-      <c r="N3" s="127">
+      <c r="N3" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1379,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -1389,81 +1413,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="114" t="s">
+      <c r="C1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="114" t="s">
+      <c r="J1" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="K1" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="L1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="M1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="114" t="s">
+      <c r="N1" s="100" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="115">
+      <c r="C2" s="101">
         <v>892</v>
       </c>
-      <c r="D2" s="116">
-        <v>0</v>
-      </c>
-      <c r="E2" s="117">
-        <v>1</v>
-      </c>
-      <c r="F2" s="118">
-        <v>1</v>
-      </c>
-      <c r="G2" s="119">
+      <c r="D2" s="102">
+        <v>0</v>
+      </c>
+      <c r="E2" s="103">
+        <v>1</v>
+      </c>
+      <c r="F2" s="104">
+        <v>1</v>
+      </c>
+      <c r="G2" s="105">
         <v>892</v>
       </c>
-      <c r="H2" s="120">
-        <v>0</v>
-      </c>
-      <c r="I2" s="121">
+      <c r="H2" s="106">
+        <v>0</v>
+      </c>
+      <c r="I2" s="107">
         <v>0.5</v>
       </c>
-      <c r="J2" s="122">
-        <v>0</v>
-      </c>
-      <c r="K2" s="123">
-        <v>0</v>
-      </c>
-      <c r="L2" s="124">
+      <c r="J2" s="108">
+        <v>0</v>
+      </c>
+      <c r="K2" s="109">
+        <v>0</v>
+      </c>
+      <c r="L2" s="110">
         <v>0.16703952274422074</v>
       </c>
-      <c r="M2" s="125">
+      <c r="M2" s="111">
         <v>1.1185682326621924E-3</v>
       </c>
-      <c r="N2" s="126">
+      <c r="N2" s="112">
         <v>-2.2396360340364418E-3</v>
       </c>
     </row>
@@ -1471,31 +1495,31 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="127">
+      <c r="H3" s="113">
         <f t="shared" ref="H3:N3" si="0">AVERAGE(H2)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="127">
+      <c r="I3" s="113">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="J3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="127">
+      <c r="J3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="113">
         <f t="shared" si="0"/>
         <v>0.16703952274422074</v>
       </c>
-      <c r="M3" s="127">
+      <c r="M3" s="113">
         <f t="shared" si="0"/>
         <v>1.1185682326621924E-3</v>
       </c>
-      <c r="N3" s="127">
+      <c r="N3" s="113">
         <f t="shared" si="0"/>
         <v>-2.2396360340364418E-3</v>
       </c>
@@ -1606,31 +1630,31 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="127">
+      <c r="H3" s="113">
         <f t="shared" ref="H3:N3" si="0">AVERAGE(H2)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="127">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="127">
+      <c r="I3" s="113">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="113">
         <f t="shared" si="0"/>
         <v>0.33370660694288912</v>
       </c>
-      <c r="M3" s="127">
+      <c r="M3" s="113">
         <f t="shared" si="0"/>
         <v>1.1198208286674132E-3</v>
       </c>
-      <c r="N3" s="127">
+      <c r="N3" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1741,31 +1765,31 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="127">
+      <c r="H3" s="113">
         <f t="shared" ref="H3:N3" si="0">AVERAGE(H2)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="127">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="127">
+      <c r="I3" s="113">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="113">
         <f t="shared" si="0"/>
         <v>0.33370660694288912</v>
       </c>
-      <c r="M3" s="127">
+      <c r="M3" s="113">
         <f t="shared" si="0"/>
         <v>1.1198208286674132E-3</v>
       </c>
-      <c r="N3" s="127">
+      <c r="N3" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1876,31 +1900,31 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="127">
+      <c r="H3" s="113">
         <f t="shared" ref="H3:N3" si="0">AVERAGE(H2)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="127">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="127">
+      <c r="I3" s="113">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="113">
         <f t="shared" si="0"/>
         <v>0.33370660694288912</v>
       </c>
-      <c r="M3" s="127">
+      <c r="M3" s="113">
         <f t="shared" si="0"/>
         <v>1.1198208286674132E-3</v>
       </c>
-      <c r="N3" s="127">
+      <c r="N3" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1919,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="H3:N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,70 +1998,70 @@
         <v>892</v>
       </c>
       <c r="D2" s="60">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="62">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G2" s="63">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="H2" s="64">
-        <v>0</v>
+        <v>2.8026905829596414E-2</v>
       </c>
       <c r="I2" s="65">
-        <v>0</v>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="J2" s="66">
-        <v>0</v>
+        <v>0.32894736842105265</v>
       </c>
       <c r="K2" s="67">
-        <v>0</v>
+        <v>5.1652892561983473E-2</v>
       </c>
       <c r="L2" s="68">
-        <v>0</v>
+        <v>3.2808678224702875E-2</v>
       </c>
       <c r="M2" s="69">
-        <v>0</v>
+        <v>2.7542372881355932E-2</v>
       </c>
       <c r="N2" s="70">
-        <v>-4.4842823891371782E-3</v>
+        <v>-0.11357374892059709</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="127">
+      <c r="H3" s="113">
         <f t="shared" ref="H3:N3" si="0">AVERAGE(H2)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="127">
-        <f t="shared" si="0"/>
-        <v>-4.4842823891371782E-3</v>
+        <v>2.8026905829596414E-2</v>
+      </c>
+      <c r="I3" s="113">
+        <f t="shared" si="0"/>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="J3" s="113">
+        <f t="shared" si="0"/>
+        <v>0.32894736842105265</v>
+      </c>
+      <c r="K3" s="113">
+        <f t="shared" si="0"/>
+        <v>5.1652892561983473E-2</v>
+      </c>
+      <c r="L3" s="113">
+        <f t="shared" si="0"/>
+        <v>3.2808678224702875E-2</v>
+      </c>
+      <c r="M3" s="113">
+        <f t="shared" si="0"/>
+        <v>2.7542372881355932E-2</v>
+      </c>
+      <c r="N3" s="113">
+        <f t="shared" si="0"/>
+        <v>-0.11357374892059709</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2055,7 +2079,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="H3:N3"/>
+      <selection activeCell="N3" sqref="B1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2064,81 +2088,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C1" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="72" t="s">
+      <c r="C1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="72" t="s">
+      <c r="N1" s="58" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" s="59">
         <v>892</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="60">
         <v>25</v>
       </c>
-      <c r="E2" s="75">
-        <v>1</v>
-      </c>
-      <c r="F2" s="76">
+      <c r="E2" s="61">
+        <v>1</v>
+      </c>
+      <c r="F2" s="62">
         <v>51</v>
       </c>
-      <c r="G2" s="77">
+      <c r="G2" s="63">
         <v>867</v>
       </c>
-      <c r="H2" s="78">
+      <c r="H2" s="64">
         <v>2.8026905829596414E-2</v>
       </c>
-      <c r="I2" s="79">
+      <c r="I2" s="65">
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="J2" s="80">
+      <c r="J2" s="66">
         <v>0.32894736842105265</v>
       </c>
-      <c r="K2" s="81">
+      <c r="K2" s="67">
         <v>5.1652892561983473E-2</v>
       </c>
-      <c r="L2" s="82">
+      <c r="L2" s="68">
         <v>3.2808678224702875E-2</v>
       </c>
-      <c r="M2" s="83">
+      <c r="M2" s="69">
         <v>2.7542372881355932E-2</v>
       </c>
-      <c r="N2" s="84">
+      <c r="N2" s="70">
         <v>-0.11357374892059709</v>
       </c>
     </row>
@@ -2146,31 +2170,31 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="127">
+      <c r="H3" s="113">
         <f t="shared" ref="H3:N3" si="0">AVERAGE(H2)</f>
         <v>2.8026905829596414E-2</v>
       </c>
-      <c r="I3" s="127">
+      <c r="I3" s="113">
         <f t="shared" si="0"/>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="J3" s="127">
+      <c r="J3" s="113">
         <f t="shared" si="0"/>
         <v>0.32894736842105265</v>
       </c>
-      <c r="K3" s="127">
+      <c r="K3" s="113">
         <f t="shared" si="0"/>
         <v>5.1652892561983473E-2</v>
       </c>
-      <c r="L3" s="127">
+      <c r="L3" s="113">
         <f t="shared" si="0"/>
         <v>3.2808678224702875E-2</v>
       </c>
-      <c r="M3" s="127">
+      <c r="M3" s="113">
         <f t="shared" si="0"/>
         <v>2.7542372881355932E-2</v>
       </c>
-      <c r="N3" s="127">
+      <c r="N3" s="113">
         <f t="shared" si="0"/>
         <v>-0.11357374892059709</v>
       </c>
@@ -2199,81 +2223,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C1" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="86" t="s">
+      <c r="C1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="L1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="86" t="s">
+      <c r="M1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="86" t="s">
+      <c r="N1" s="72" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="87">
+      <c r="C2" s="73">
         <v>892</v>
       </c>
-      <c r="D2" s="88">
-        <v>0</v>
-      </c>
-      <c r="E2" s="89">
-        <v>1</v>
-      </c>
-      <c r="F2" s="90">
-        <v>0</v>
-      </c>
-      <c r="G2" s="91">
+      <c r="D2" s="74">
+        <v>0</v>
+      </c>
+      <c r="E2" s="75">
+        <v>1</v>
+      </c>
+      <c r="F2" s="76">
+        <v>0</v>
+      </c>
+      <c r="G2" s="77">
         <v>892</v>
       </c>
-      <c r="H2" s="92">
-        <v>0</v>
-      </c>
-      <c r="I2" s="93">
-        <v>1</v>
-      </c>
-      <c r="J2" s="94">
-        <v>0</v>
-      </c>
-      <c r="K2" s="95">
-        <v>0</v>
-      </c>
-      <c r="L2" s="96">
+      <c r="H2" s="78">
+        <v>0</v>
+      </c>
+      <c r="I2" s="79">
+        <v>1</v>
+      </c>
+      <c r="J2" s="80">
+        <v>0</v>
+      </c>
+      <c r="K2" s="81">
+        <v>0</v>
+      </c>
+      <c r="L2" s="82">
         <v>0.33370660694288912</v>
       </c>
-      <c r="M2" s="97">
+      <c r="M2" s="83">
         <v>1.1198208286674132E-3</v>
       </c>
-      <c r="N2" s="98">
+      <c r="N2" s="84">
         <v>0</v>
       </c>
     </row>
@@ -2281,31 +2305,31 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="127">
+      <c r="H3" s="113">
         <f t="shared" ref="H3:N3" si="0">AVERAGE(H2)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="127">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="127">
+      <c r="I3" s="113">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="113">
         <f t="shared" si="0"/>
         <v>0.33370660694288912</v>
       </c>
-      <c r="M3" s="127">
+      <c r="M3" s="113">
         <f t="shared" si="0"/>
         <v>1.1198208286674132E-3</v>
       </c>
-      <c r="N3" s="127">
+      <c r="N3" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2334,81 +2358,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="100" t="s">
+      <c r="C1" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="100" t="s">
+      <c r="L1" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="100" t="s">
+      <c r="M1" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100" t="s">
+      <c r="N1" s="86" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="101">
+      <c r="C2" s="87">
         <v>892</v>
       </c>
-      <c r="D2" s="102">
-        <v>0</v>
-      </c>
-      <c r="E2" s="103">
-        <v>1</v>
-      </c>
-      <c r="F2" s="104">
-        <v>0</v>
-      </c>
-      <c r="G2" s="105">
+      <c r="D2" s="88">
+        <v>0</v>
+      </c>
+      <c r="E2" s="89">
+        <v>1</v>
+      </c>
+      <c r="F2" s="90">
+        <v>0</v>
+      </c>
+      <c r="G2" s="91">
         <v>892</v>
       </c>
-      <c r="H2" s="106">
-        <v>0</v>
-      </c>
-      <c r="I2" s="107">
-        <v>1</v>
-      </c>
-      <c r="J2" s="108">
-        <v>0</v>
-      </c>
-      <c r="K2" s="109">
-        <v>0</v>
-      </c>
-      <c r="L2" s="110">
+      <c r="H2" s="92">
+        <v>0</v>
+      </c>
+      <c r="I2" s="93">
+        <v>1</v>
+      </c>
+      <c r="J2" s="94">
+        <v>0</v>
+      </c>
+      <c r="K2" s="95">
+        <v>0</v>
+      </c>
+      <c r="L2" s="96">
         <v>0.33370660694288912</v>
       </c>
-      <c r="M2" s="111">
+      <c r="M2" s="97">
         <v>1.1198208286674132E-3</v>
       </c>
-      <c r="N2" s="112">
+      <c r="N2" s="98">
         <v>0</v>
       </c>
     </row>
@@ -2416,31 +2440,31 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="127">
+      <c r="H3" s="113">
         <f t="shared" ref="H3:N3" si="0">AVERAGE(H2)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="127">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="127">
+      <c r="I3" s="113">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="113">
         <f t="shared" si="0"/>
         <v>0.33370660694288912</v>
       </c>
-      <c r="M3" s="127">
+      <c r="M3" s="113">
         <f t="shared" si="0"/>
         <v>1.1198208286674132E-3</v>
       </c>
-      <c r="N3" s="127">
+      <c r="N3" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2469,81 +2493,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="114" t="s">
+      <c r="C1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="114" t="s">
+      <c r="J1" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="K1" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="L1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="M1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="114" t="s">
+      <c r="N1" s="100" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="115">
+      <c r="C2" s="101">
         <v>892</v>
       </c>
-      <c r="D2" s="116">
-        <v>0</v>
-      </c>
-      <c r="E2" s="117">
-        <v>1</v>
-      </c>
-      <c r="F2" s="118">
-        <v>1</v>
-      </c>
-      <c r="G2" s="119">
+      <c r="D2" s="102">
+        <v>0</v>
+      </c>
+      <c r="E2" s="103">
+        <v>1</v>
+      </c>
+      <c r="F2" s="104">
+        <v>1</v>
+      </c>
+      <c r="G2" s="105">
         <v>892</v>
       </c>
-      <c r="H2" s="120">
-        <v>0</v>
-      </c>
-      <c r="I2" s="121">
+      <c r="H2" s="106">
+        <v>0</v>
+      </c>
+      <c r="I2" s="107">
         <v>0.5</v>
       </c>
-      <c r="J2" s="122">
-        <v>0</v>
-      </c>
-      <c r="K2" s="123">
-        <v>0</v>
-      </c>
-      <c r="L2" s="124">
+      <c r="J2" s="108">
+        <v>0</v>
+      </c>
+      <c r="K2" s="109">
+        <v>0</v>
+      </c>
+      <c r="L2" s="110">
         <v>0.16703952274422074</v>
       </c>
-      <c r="M2" s="125">
+      <c r="M2" s="111">
         <v>1.1185682326621924E-3</v>
       </c>
-      <c r="N2" s="126">
+      <c r="N2" s="112">
         <v>-2.2396360340364418E-3</v>
       </c>
     </row>
@@ -2551,31 +2575,31 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="127">
+      <c r="H3" s="113">
         <f t="shared" ref="H3:N3" si="0">AVERAGE(H2)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="127">
+      <c r="I3" s="113">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="J3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="127">
+      <c r="J3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="113">
         <f t="shared" si="0"/>
         <v>0.16703952274422074</v>
       </c>
-      <c r="M3" s="127">
+      <c r="M3" s="113">
         <f t="shared" si="0"/>
         <v>1.1185682326621924E-3</v>
       </c>
-      <c r="N3" s="127">
+      <c r="N3" s="113">
         <f t="shared" si="0"/>
         <v>-2.2396360340364418E-3</v>
       </c>
